--- a/DataBase/資料庫建立檢表0810.xlsx
+++ b/DataBase/資料庫建立檢表0810.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D792681-CA9B-450E-AAE4-E6E9AB5387B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10524" yWindow="0" windowWidth="12516" windowHeight="10044" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10524" yWindow="0" windowWidth="12516" windowHeight="10044" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="455">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1887,15 +1886,23 @@
     <t>longtext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PROBLEM_CUSTID_FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROBLEM_ORDID_FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2490,6 +2497,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2511,21 +2530,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2533,6 +2537,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,7 +2615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2640,27 +2647,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2692,24 +2681,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2885,7 +2856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2895,7 +2866,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
@@ -2916,15 +2887,15 @@
     <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2937,7 +2908,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2975,7 +2946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -3003,7 +2974,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -3032,7 +3003,7 @@
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3056,7 +3027,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -3080,7 +3051,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -3104,7 +3075,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3128,7 +3099,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="56"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3152,11 +3123,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
+      <c r="S9" s="97"/>
+      <c r="T9" s="97"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -3186,7 +3157,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -3216,7 +3187,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3244,7 +3215,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -3265,17 +3236,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="87" t="s">
+      <c r="P13" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="88"/>
-      <c r="S13" s="88"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="6" t="s">
         <v>232</v>
       </c>
@@ -3294,15 +3265,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="90"/>
-      <c r="R14" s="90"/>
-      <c r="S14" s="90"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="94"/>
+      <c r="S14" s="94"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" s="45" t="s">
         <v>295</v>
       </c>
@@ -3323,15 +3294,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
@@ -3362,7 +3333,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -3383,7 +3354,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -3404,7 +3375,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="P19" s="50" t="s">
         <v>88</v>
       </c>
@@ -3414,20 +3385,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="94"/>
-      <c r="T19" s="94"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="95" t="s">
+    <row r="20" spans="1:22">
+      <c r="A20" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="97" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3450,7 +3421,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3502,7 +3473,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
@@ -3540,7 +3511,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -3580,7 +3551,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3607,7 +3578,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3642,7 +3613,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -3672,12 +3643,12 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="94"/>
-      <c r="T26" s="94"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3712,7 +3683,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3745,7 +3716,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3778,7 +3749,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -3807,7 +3778,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3836,7 +3807,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -3869,7 +3840,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3901,12 +3872,12 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="94"/>
-      <c r="T33" s="94"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3943,7 +3914,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" s="19" customFormat="1">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3980,7 +3951,7 @@
       <c r="U35" s="40"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
@@ -4011,7 +3982,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -4040,27 +4011,27 @@
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P38" s="91" t="s">
+    <row r="38" spans="1:25">
+      <c r="P38" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="P39" s="91"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
+    <row r="39" spans="1:25">
+      <c r="P39" s="95"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:25" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="24.6">
       <c r="P40" s="57" t="s">
         <v>280</v>
       </c>
@@ -4074,26 +4045,26 @@
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25">
       <c r="P41" s="50"/>
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
+      <c r="R41" s="89"/>
+      <c r="S41" s="89"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="95" t="s">
+    <row r="42" spans="1:25">
+      <c r="A42" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="87" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="95"/>
+      <c r="D42" s="87"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4113,7 +4084,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -4169,7 +4140,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25">
       <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
@@ -4211,7 +4182,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -4258,7 +4229,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4299,7 +4270,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25">
       <c r="A47" s="30" t="s">
         <v>257</v>
       </c>
@@ -4341,7 +4312,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="49"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -4373,7 +4344,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" ht="24.6">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -4404,7 +4375,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -4429,13 +4400,13 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="96"/>
-      <c r="S50" s="96"/>
+      <c r="R50" s="89"/>
+      <c r="S50" s="89"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -4464,7 +4435,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -4503,7 +4474,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -4542,7 +4513,7 @@
       </c>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -4581,7 +4552,7 @@
       </c>
       <c r="V54" s="49"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -4618,7 +4589,7 @@
       </c>
       <c r="V55" s="49"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -4657,7 +4628,7 @@
       </c>
       <c r="V56" s="49"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -4700,7 +4671,7 @@
       </c>
       <c r="V57" s="49"/>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="P58" s="50"/>
       <c r="Q58" s="38" t="s">
         <v>270</v>
@@ -4719,7 +4690,7 @@
       </c>
       <c r="V58" s="49"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="P59" s="50"/>
       <c r="Q59" s="38" t="s">
         <v>270</v>
@@ -4738,7 +4709,7 @@
       </c>
       <c r="V59" s="49"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="P60" s="50"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
@@ -4747,7 +4718,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="49"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22">
       <c r="P61" s="61"/>
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
@@ -4756,15 +4727,15 @@
       <c r="U61" s="62"/>
       <c r="V61" s="63"/>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="95" t="s">
+    <row r="62" spans="1:22">
+      <c r="A62" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="87" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="95"/>
+      <c r="D62" s="87"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4782,7 +4753,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -4823,7 +4794,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22">
       <c r="A64" s="31" t="s">
         <v>269</v>
       </c>
@@ -4850,7 +4821,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4882,7 +4853,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4908,7 +4879,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21">
       <c r="A67" s="30" t="s">
         <v>257</v>
       </c>
@@ -4935,7 +4906,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -4960,7 +4931,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21">
       <c r="A69" s="30" t="s">
         <v>225</v>
       </c>
@@ -4987,7 +4958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
@@ -5009,7 +4980,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" s="1" t="s">
         <v>251</v>
       </c>
@@ -5031,7 +5002,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -5054,7 +5025,7 @@
       <c r="L72" s="2"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -5076,7 +5047,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" s="13" customFormat="1">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -5104,7 +5075,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="13" customFormat="1">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -5130,7 +5101,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" s="13" customFormat="1">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -5156,7 +5127,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" s="13" customFormat="1">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
@@ -5183,7 +5154,7 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" s="13" customFormat="1">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -5210,7 +5181,7 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -5232,7 +5203,7 @@
       <c r="P79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -5256,7 +5227,7 @@
       <c r="P80" s="13"/>
       <c r="U80" s="13"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -5284,41 +5255,41 @@
       <c r="P81" s="13"/>
       <c r="U81" s="13"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21">
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21">
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21">
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21">
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="95" t="s">
+    <row r="86" spans="1:21" s="13" customFormat="1">
+      <c r="A86" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="95"/>
-      <c r="C86" s="95" t="s">
+      <c r="B86" s="87"/>
+      <c r="C86" s="87" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="95"/>
+      <c r="D86" s="87"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5330,7 +5301,7 @@
       <c r="P86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
@@ -5368,7 +5339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21">
       <c r="A88" s="14" t="s">
         <v>263</v>
       </c>
@@ -5395,7 +5366,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
@@ -5422,7 +5393,7 @@
       <c r="L89" s="2"/>
       <c r="U89" s="13"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -5444,7 +5415,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -5467,7 +5438,7 @@
       <c r="L91" s="2"/>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -5487,7 +5458,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
@@ -5509,7 +5480,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
@@ -5535,7 +5506,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21">
       <c r="A95" s="30" t="s">
         <v>257</v>
       </c>
@@ -5560,7 +5531,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21">
       <c r="A96" s="45" t="s">
         <v>295</v>
       </c>
@@ -5582,15 +5553,15 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="95" t="s">
+    <row r="100" spans="1:15">
+      <c r="A100" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95" t="s">
+      <c r="B100" s="87"/>
+      <c r="C100" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="95"/>
+      <c r="D100" s="87"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5600,7 +5571,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -5638,7 +5609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
@@ -5665,7 +5636,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -5694,7 +5665,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
@@ -5718,7 +5689,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -5740,7 +5711,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -5762,7 +5733,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -5782,7 +5753,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
@@ -5804,7 +5775,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
@@ -5828,7 +5799,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15">
       <c r="A110" s="30" t="s">
         <v>257</v>
       </c>
@@ -5850,7 +5821,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15">
       <c r="A111" s="45" t="s">
         <v>295</v>
       </c>
@@ -5872,15 +5843,15 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A115" s="95" t="s">
+    <row r="115" spans="1:21">
+      <c r="A115" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="95"/>
-      <c r="C115" s="95" t="s">
+      <c r="B115" s="87"/>
+      <c r="C115" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="95"/>
+      <c r="D115" s="87"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5890,7 +5861,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5928,7 +5899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21">
       <c r="A117" s="31" t="s">
         <v>269</v>
       </c>
@@ -5958,7 +5929,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -5990,7 +5961,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="19" customFormat="1">
       <c r="A119" s="5" t="s">
         <v>217</v>
       </c>
@@ -6020,7 +5991,7 @@
       <c r="T119"/>
       <c r="U119"/>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="19" customFormat="1">
       <c r="A120" s="33" t="s">
         <v>263</v>
       </c>
@@ -6053,7 +6024,7 @@
       <c r="T120"/>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -6078,7 +6049,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21">
       <c r="A122" s="30" t="s">
         <v>225</v>
       </c>
@@ -6106,7 +6077,7 @@
       </c>
       <c r="U122" s="19"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
@@ -6129,7 +6100,7 @@
       <c r="L123" s="2"/>
       <c r="U123" s="19"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21">
       <c r="A124" s="5" t="s">
         <v>164</v>
       </c>
@@ -6154,7 +6125,7 @@
       <c r="L124" s="2"/>
       <c r="P124" s="19"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
@@ -6175,7 +6146,7 @@
       <c r="L125" s="2"/>
       <c r="P125" s="19"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
@@ -6197,7 +6168,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -6227,21 +6198,21 @@
       <c r="S127" s="19"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21">
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A131" s="95" t="s">
+    <row r="131" spans="1:16">
+      <c r="A131" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="95"/>
-      <c r="C131" s="95" t="s">
+      <c r="B131" s="87"/>
+      <c r="C131" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="95"/>
+      <c r="D131" s="87"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6251,7 +6222,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -6289,7 +6260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="7" t="s">
         <v>86</v>
       </c>
@@ -6315,7 +6286,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16">
       <c r="A134" s="31" t="s">
         <v>269</v>
       </c>
@@ -6339,7 +6310,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
@@ -6365,7 +6336,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
@@ -6387,7 +6358,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -6409,7 +6380,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -6434,7 +6405,7 @@
       <c r="L138" s="2"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139" s="8" t="s">
         <v>96</v>
       </c>
@@ -6457,7 +6428,7 @@
       <c r="L139" s="2"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
         <v>235</v>
       </c>
@@ -6478,24 +6449,24 @@
       <c r="L140" s="2"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="P143" s="13"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="95" t="s">
+    <row r="144" spans="1:16">
+      <c r="A144" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="95"/>
-      <c r="C144" s="95" t="s">
+      <c r="B144" s="87"/>
+      <c r="C144" s="87" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="95"/>
+      <c r="D144" s="87"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6506,7 +6477,7 @@
       <c r="L144" s="9"/>
       <c r="P144" s="13"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -6545,7 +6516,7 @@
       </c>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -6568,7 +6539,7 @@
       <c r="L146" s="2"/>
       <c r="P146" s="13"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -6591,7 +6562,7 @@
       <c r="L147" s="2"/>
       <c r="P147" s="13"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -6613,7 +6584,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -6635,7 +6606,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21">
       <c r="A150" s="6" t="s">
         <v>171</v>
       </c>
@@ -6657,7 +6628,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -6679,15 +6650,15 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A155" s="95" t="s">
+    <row r="155" spans="1:21">
+      <c r="A155" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="95"/>
-      <c r="C155" s="95" t="s">
+      <c r="B155" s="87"/>
+      <c r="C155" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="95"/>
+      <c r="D155" s="87"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6697,7 +6668,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -6735,7 +6706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157" s="30" t="s">
         <v>257</v>
       </c>
@@ -6761,7 +6732,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158" s="1" t="s">
         <v>239</v>
       </c>
@@ -6783,7 +6754,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" s="13" customFormat="1">
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
       <c r="P159"/>
@@ -6793,7 +6764,7 @@
       <c r="T159"/>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" s="13" customFormat="1">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="E160" s="28"/>
@@ -6804,7 +6775,7 @@
       <c r="T160"/>
       <c r="U160"/>
     </row>
-    <row r="161" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" s="13" customFormat="1">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="E161" s="28"/>
@@ -6815,15 +6786,15 @@
       <c r="T161"/>
       <c r="U161"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A162" s="95" t="s">
+    <row r="162" spans="1:21">
+      <c r="A162" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="95"/>
-      <c r="C162" s="95" t="s">
+      <c r="B162" s="87"/>
+      <c r="C162" s="87" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="95"/>
+      <c r="D162" s="87"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6834,7 +6805,7 @@
       <c r="L162" s="9"/>
       <c r="U162" s="13"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163" s="2" t="s">
         <v>25</v>
       </c>
@@ -6873,7 +6844,7 @@
       </c>
       <c r="U163" s="13"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164" s="1" t="s">
         <v>244</v>
       </c>
@@ -6899,7 +6870,7 @@
       <c r="P164" s="13"/>
       <c r="U164" s="13"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165" s="1" t="s">
         <v>242</v>
       </c>
@@ -6924,22 +6895,22 @@
       <c r="L165" s="2"/>
       <c r="P165" s="13"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="P166" s="13"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21">
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21">
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21">
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
@@ -6947,6 +6918,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6963,20 +6948,6 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6985,285 +6956,293 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="98" t="s">
+    <row r="1" spans="2:15">
+      <c r="B1" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="E1" s="98" t="s">
+      <c r="C1" s="101"/>
+      <c r="E1" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="98"/>
-      <c r="H1" s="101" t="s">
+      <c r="F1" s="101"/>
+      <c r="H1" s="100" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="101"/>
-      <c r="K1" s="101" t="s">
+      <c r="I1" s="100"/>
+      <c r="K1" s="100" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="101"/>
-      <c r="N1" s="98" t="s">
+      <c r="L1" s="100"/>
+      <c r="N1" s="101" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="98"/>
-    </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
+      <c r="O1" s="101"/>
+    </row>
+    <row r="2" spans="2:15">
+      <c r="B2" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="E2" s="99" t="s">
+      <c r="C2" s="99"/>
+      <c r="E2" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="H2" s="99" t="s">
+      <c r="F2" s="99"/>
+      <c r="H2" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="100"/>
-      <c r="K2" s="99" t="s">
+      <c r="I2" s="99"/>
+      <c r="K2" s="98" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="100"/>
-      <c r="N2" s="99" t="s">
+      <c r="L2" s="99"/>
+      <c r="N2" s="98" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="100"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="K5" s="100"/>
-      <c r="L5" s="100"/>
-      <c r="N5" s="100"/>
-      <c r="O5" s="100"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="K6" s="100"/>
-      <c r="L6" s="100"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="100"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="98" t="s">
+      <c r="O2" s="99"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="E11" s="98" t="s">
+      <c r="C11" s="101"/>
+      <c r="E11" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="H11" s="101" t="s">
+      <c r="F11" s="101"/>
+      <c r="H11" s="100" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="101"/>
-      <c r="K11" s="101" t="s">
+      <c r="I11" s="100"/>
+      <c r="K11" s="100" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="101"/>
-      <c r="N11" s="98" t="s">
+      <c r="L11" s="100"/>
+      <c r="N11" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="98"/>
-    </row>
-    <row r="12" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="99" t="s">
+      <c r="O11" s="101"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.2" customHeight="1">
+      <c r="B12" s="98" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="E12" s="99" t="s">
+      <c r="C12" s="99"/>
+      <c r="E12" s="98" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="100"/>
-      <c r="H12" s="99" t="s">
+      <c r="F12" s="99"/>
+      <c r="H12" s="98" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="100"/>
-      <c r="K12" s="99" t="s">
+      <c r="I12" s="99"/>
+      <c r="K12" s="98" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="100"/>
-      <c r="N12" s="99" t="s">
+      <c r="L12" s="99"/>
+      <c r="N12" s="98" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="100"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="98" t="s">
+      <c r="O12" s="99"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="E21" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="98"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E22" s="99" t="s">
+      <c r="F21" s="101"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="E22" s="98" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="100"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
+      <c r="F22" s="99"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7278,14 +7257,6 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7294,12 +7265,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7308,14 +7279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
@@ -7326,15 +7297,15 @@
     <col min="10" max="10" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="95"/>
+      <c r="D1" s="87"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7342,7 +7313,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7374,7 +7345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7394,7 +7365,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7408,7 +7379,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -7422,7 +7393,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -7436,7 +7407,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -7450,7 +7421,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="11" t="s">
         <v>100</v>
       </c>
@@ -7464,7 +7435,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7478,7 +7449,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7492,7 +7463,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7506,15 +7477,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="95" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="97" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="95"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7522,7 +7493,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -7570,7 +7541,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7586,7 +7557,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -7602,7 +7573,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7618,7 +7589,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -7634,7 +7605,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7650,7 +7621,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7666,7 +7637,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7682,15 +7653,15 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
+    <row r="30" spans="1:10">
+      <c r="A30" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="95"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7698,7 +7669,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -7730,7 +7701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7746,7 +7717,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -7762,7 +7733,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -7778,7 +7749,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -7794,7 +7765,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -7810,15 +7781,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="95" t="s">
+    <row r="41" spans="1:10">
+      <c r="A41" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="95"/>
+      <c r="D41" s="87"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7826,7 +7797,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -7858,7 +7829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -7874,7 +7845,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7890,7 +7861,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
@@ -7906,7 +7877,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -7922,7 +7893,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -7938,7 +7909,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -7954,7 +7925,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -7970,7 +7941,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -7986,15 +7957,15 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="95" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="95"/>
-      <c r="C55" s="95" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="87"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -8002,7 +7973,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -8034,7 +8005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
@@ -8050,7 +8021,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58" s="6" t="s">
         <v>39</v>
       </c>
@@ -8066,7 +8037,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -8082,7 +8053,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -8098,7 +8069,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
@@ -8114,15 +8085,15 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="95" t="s">
+    <row r="66" spans="1:10">
+      <c r="A66" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95" t="s">
+      <c r="B66" s="87"/>
+      <c r="C66" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="95"/>
+      <c r="D66" s="87"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -8130,7 +8101,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -8162,7 +8133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -8178,7 +8149,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -8194,7 +8165,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -8210,7 +8181,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
@@ -8226,7 +8197,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -8242,15 +8213,15 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="95" t="s">
+    <row r="77" spans="1:10">
+      <c r="A77" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="95"/>
-      <c r="C77" s="95" t="s">
+      <c r="B77" s="87"/>
+      <c r="C77" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="95"/>
+      <c r="D77" s="87"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8258,7 +8229,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -8290,7 +8261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
@@ -8306,7 +8277,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80" s="5" t="s">
         <v>72</v>
       </c>
@@ -8322,7 +8293,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -8338,7 +8309,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -8354,7 +8325,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -8370,7 +8341,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -8386,7 +8357,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -8402,7 +8373,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -8418,15 +8389,15 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A91" s="95" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95" t="s">
+      <c r="B91" s="87"/>
+      <c r="C91" s="87" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="95"/>
+      <c r="D91" s="87"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8434,7 +8405,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -8466,7 +8437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93" s="5" t="s">
         <v>70</v>
       </c>
@@ -8482,7 +8453,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
@@ -8498,7 +8469,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -8514,7 +8485,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96" s="5" t="s">
         <v>75</v>
       </c>
@@ -8530,7 +8501,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -8546,7 +8517,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -8562,7 +8533,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -8578,7 +8549,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100" s="5" t="s">
         <v>79</v>
       </c>
@@ -8594,7 +8565,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101" s="6" t="s">
         <v>55</v>
       </c>
@@ -8610,15 +8581,15 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A106" s="95" t="s">
+    <row r="106" spans="1:10">
+      <c r="A106" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="95"/>
-      <c r="C106" s="95" t="s">
+      <c r="B106" s="87"/>
+      <c r="C106" s="87" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="95"/>
+      <c r="D106" s="87"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8626,7 +8597,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
         <v>25</v>
       </c>
@@ -8658,7 +8629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -8674,7 +8645,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109" s="6" t="s">
         <v>82</v>
       </c>
@@ -8690,15 +8661,15 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A114" s="95" t="s">
+    <row r="114" spans="1:10">
+      <c r="A114" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="95"/>
-      <c r="C114" s="95" t="s">
+      <c r="B114" s="87"/>
+      <c r="C114" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="95"/>
+      <c r="D114" s="87"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8706,7 +8677,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
@@ -8738,7 +8709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
@@ -8754,7 +8725,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117" s="6" t="s">
         <v>82</v>
       </c>
@@ -8770,15 +8741,15 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A122" s="95" t="s">
+    <row r="122" spans="1:10">
+      <c r="A122" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="95"/>
-      <c r="C122" s="95" t="s">
+      <c r="B122" s="87"/>
+      <c r="C122" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="95"/>
+      <c r="D122" s="87"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8786,7 +8757,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
@@ -8818,7 +8789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
@@ -8834,7 +8805,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -8850,7 +8821,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -8866,7 +8837,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -8882,7 +8853,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -8898,7 +8869,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
@@ -8916,6 +8887,18 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8926,18 +8909,6 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8946,17 +8917,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
@@ -8980,11 +8951,11 @@
     <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="95"/>
+      <c r="B1" s="87"/>
       <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
@@ -9001,7 +8972,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9039,7 +9010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -9069,7 +9040,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -9096,7 +9067,7 @@
       <c r="N4" s="66"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9122,7 +9093,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="66"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -9148,7 +9119,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="66"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -9174,7 +9145,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="66"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="1" t="s">
         <v>393</v>
       </c>
@@ -9200,7 +9171,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="73"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -9224,7 +9195,7 @@
       <c r="M9" s="54"/>
       <c r="N9" s="66"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -9250,11 +9221,11 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -9286,7 +9257,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -9316,7 +9287,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -9344,7 +9315,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -9367,17 +9338,17 @@
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="87" t="s">
+      <c r="P14" s="91" t="s">
         <v>289</v>
       </c>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="48"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" s="6" t="s">
         <v>232</v>
       </c>
@@ -9398,15 +9369,15 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="90"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="94"/>
+      <c r="S15" s="94"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22">
       <c r="A16" s="45" t="s">
         <v>295</v>
       </c>
@@ -9427,15 +9398,15 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="2"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="90"/>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="94"/>
+      <c r="S16" s="94"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" s="6" t="s">
         <v>159</v>
       </c>
@@ -9466,7 +9437,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -9487,7 +9458,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
@@ -9508,7 +9479,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="P20" s="50" t="s">
         <v>88</v>
       </c>
@@ -9518,16 +9489,16 @@
       <c r="R20" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S20" s="94"/>
-      <c r="T20" s="94"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="95" t="s">
+    <row r="21" spans="1:22">
+      <c r="A21" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="102" t="s">
         <v>400</v>
       </c>
@@ -9554,7 +9525,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -9606,7 +9577,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="22" t="s">
         <v>330</v>
       </c>
@@ -9646,7 +9617,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22">
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
@@ -9686,7 +9657,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -9715,7 +9686,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -9752,7 +9723,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -9789,7 +9760,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -9824,7 +9795,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -9859,7 +9830,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -9890,7 +9861,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -9921,7 +9892,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -9955,12 +9926,12 @@
       <c r="R32" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S32" s="94"/>
-      <c r="T32" s="94"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -9999,7 +9970,7 @@
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22">
       <c r="A34" s="6" t="s">
         <v>133</v>
       </c>
@@ -10034,7 +10005,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
@@ -10063,33 +10034,33 @@
       <c r="U35" s="13"/>
       <c r="V35" s="49"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="P36" s="91" t="s">
+    <row r="36" spans="1:22">
+      <c r="P36" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
+      <c r="S36" s="96"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22">
       <c r="P37" s="50"/>
       <c r="Q37" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="89"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="95" t="s">
+    <row r="38" spans="1:22">
+      <c r="A38" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="87"/>
       <c r="C38" s="104" t="s">
         <v>136</v>
       </c>
@@ -10113,7 +10084,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -10169,7 +10140,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22">
       <c r="A40" s="22" t="s">
         <v>330</v>
       </c>
@@ -10212,7 +10183,7 @@
       <c r="U40" s="13"/>
       <c r="V40" s="49"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
@@ -10259,7 +10230,7 @@
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22">
       <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
@@ -10298,7 +10269,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22">
       <c r="A43" s="1" t="s">
         <v>257</v>
       </c>
@@ -10342,7 +10313,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22">
       <c r="A44" s="1" t="s">
         <v>389</v>
       </c>
@@ -10375,7 +10346,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -10413,7 +10384,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -10444,7 +10415,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" s="19" customFormat="1">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
@@ -10483,7 +10454,7 @@
       <c r="U47" s="40"/>
       <c r="V47" s="55"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -10524,7 +10495,7 @@
       </c>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22">
       <c r="A49" s="6" t="s">
         <v>145</v>
       </c>
@@ -10565,7 +10536,7 @@
       </c>
       <c r="V49" s="49"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
@@ -10606,7 +10577,7 @@
       </c>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="A51" s="84" t="s">
         <v>102</v>
       </c>
@@ -10651,7 +10622,7 @@
       </c>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22">
       <c r="P52" s="50"/>
       <c r="Q52" s="38" t="s">
         <v>270</v>
@@ -10670,7 +10641,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22">
       <c r="A53" s="69"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="39"/>
@@ -10680,7 +10651,7 @@
       <c r="U53" s="13"/>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22">
       <c r="A54" s="69"/>
       <c r="P54" s="61"/>
       <c r="Q54" s="62"/>
@@ -10690,11 +10661,11 @@
       <c r="U54" s="62"/>
       <c r="V54" s="63"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="95" t="s">
+    <row r="55" spans="1:22">
+      <c r="A55" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="95"/>
+      <c r="B55" s="87"/>
       <c r="C55" s="104" t="s">
         <v>249</v>
       </c>
@@ -10716,7 +10687,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -10757,7 +10728,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22">
       <c r="A57" s="22" t="s">
         <v>330</v>
       </c>
@@ -10785,7 +10756,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -10817,7 +10788,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
@@ -10841,7 +10812,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="A60" s="1" t="s">
         <v>257</v>
       </c>
@@ -10870,7 +10841,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22">
       <c r="A61" s="1" t="s">
         <v>389</v>
       </c>
@@ -10899,7 +10870,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
@@ -10930,7 +10901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
@@ -10957,7 +10928,7 @@
       <c r="L63" s="2"/>
       <c r="R63" s="20"/>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -10981,7 +10952,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="13" customFormat="1">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
@@ -11013,7 +10984,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" s="13" customFormat="1">
       <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
@@ -11043,7 +11014,7 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" s="13" customFormat="1">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
@@ -11075,7 +11046,7 @@
       <c r="T67"/>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" s="13" customFormat="1">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -11106,7 +11077,7 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" s="13" customFormat="1">
       <c r="A69" s="6" t="s">
         <v>145</v>
       </c>
@@ -11135,7 +11106,7 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21">
       <c r="A70" s="1" t="s">
         <v>126</v>
       </c>
@@ -11161,7 +11132,7 @@
       <c r="P70" s="13"/>
       <c r="U70" s="13"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21">
       <c r="A71" s="84" t="s">
         <v>102</v>
       </c>
@@ -11194,7 +11165,7 @@
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21">
       <c r="A72" s="70"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -11202,21 +11173,21 @@
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21">
       <c r="A73" s="68"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21">
       <c r="A74" s="69"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="13" customFormat="1">
       <c r="A75" s="69"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -11232,11 +11203,11 @@
       <c r="P75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="95" t="s">
+    <row r="76" spans="1:21">
+      <c r="A76" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="95"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="104" t="s">
         <v>246</v>
       </c>
@@ -11250,7 +11221,7 @@
       <c r="K76" s="74"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21">
       <c r="A77" s="14" t="s">
         <v>25</v>
       </c>
@@ -11291,7 +11262,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21">
       <c r="A78" s="14" t="s">
         <v>263</v>
       </c>
@@ -11322,7 +11293,7 @@
       <c r="L78" s="44"/>
       <c r="U78" s="13"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21">
       <c r="A79" s="6" t="s">
         <v>37</v>
       </c>
@@ -11347,7 +11318,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21">
       <c r="A80" s="6" t="s">
         <v>39</v>
       </c>
@@ -11372,7 +11343,7 @@
       <c r="L80" s="2"/>
       <c r="P80" s="13"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81" s="6" t="s">
         <v>152</v>
       </c>
@@ -11396,7 +11367,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82" s="6" t="s">
         <v>154</v>
       </c>
@@ -11418,7 +11389,7 @@
       <c r="K82" s="10"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83" s="6" t="s">
         <v>159</v>
       </c>
@@ -11444,7 +11415,7 @@
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84" s="6" t="s">
         <v>157</v>
       </c>
@@ -11471,7 +11442,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
@@ -11495,7 +11466,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86" s="45" t="s">
         <v>295</v>
       </c>
@@ -11517,7 +11488,7 @@
       <c r="K86" s="10"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87" s="2" t="s">
         <v>389</v>
       </c>
@@ -11545,11 +11516,11 @@
         <v>438</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A90" s="95" t="s">
+    <row r="90" spans="1:20">
+      <c r="A90" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="95"/>
+      <c r="B90" s="87"/>
       <c r="C90" s="104" t="s">
         <v>247</v>
       </c>
@@ -11563,7 +11534,7 @@
       <c r="K90" s="74"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91" s="2" t="s">
         <v>25</v>
       </c>
@@ -11604,7 +11575,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92" s="14" t="s">
         <v>263</v>
       </c>
@@ -11637,7 +11608,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20">
       <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
@@ -11663,7 +11634,7 @@
       <c r="K93" s="10"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94" s="1" t="s">
         <v>225</v>
       </c>
@@ -11689,7 +11660,7 @@
       <c r="K94" s="10"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95" s="1" t="s">
         <v>140</v>
       </c>
@@ -11713,7 +11684,7 @@
       <c r="K95" s="10"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96" s="1" t="s">
         <v>340</v>
       </c>
@@ -11737,7 +11708,7 @@
       <c r="K96" s="10"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21">
       <c r="A97" s="6" t="s">
         <v>154</v>
       </c>
@@ -11759,7 +11730,7 @@
       <c r="K97" s="10"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21">
       <c r="A98" s="6" t="s">
         <v>159</v>
       </c>
@@ -11781,7 +11752,7 @@
       <c r="K98" s="10"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21">
       <c r="A99" s="1" t="s">
         <v>157</v>
       </c>
@@ -11807,7 +11778,7 @@
       <c r="K99" s="10"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21">
       <c r="A100" s="1" t="s">
         <v>257</v>
       </c>
@@ -11831,7 +11802,7 @@
       <c r="K100" s="10"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21">
       <c r="A101" s="45" t="s">
         <v>295</v>
       </c>
@@ -11853,7 +11824,7 @@
       <c r="K101" s="10"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21">
       <c r="A102" s="2" t="s">
         <v>389</v>
       </c>
@@ -11881,17 +11852,17 @@
         <v>437</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21">
       <c r="A103" s="70"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21">
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A105" s="95" t="s">
+    <row r="105" spans="1:21">
+      <c r="A105" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="95"/>
+      <c r="B105" s="87"/>
       <c r="C105" s="102" t="s">
         <v>348</v>
       </c>
@@ -11906,7 +11877,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="31"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21">
       <c r="A106" s="2" t="s">
         <v>25</v>
       </c>
@@ -11945,7 +11916,7 @@
       </c>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21">
       <c r="A107" s="22" t="s">
         <v>330</v>
       </c>
@@ -11972,7 +11943,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" s="19" customFormat="1">
       <c r="A108" s="1" t="s">
         <v>425</v>
       </c>
@@ -12011,7 +11982,7 @@
       <c r="T108"/>
       <c r="U108"/>
     </row>
-    <row r="109" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" s="19" customFormat="1">
       <c r="A109" s="5" t="s">
         <v>217</v>
       </c>
@@ -12047,7 +12018,7 @@
       <c r="T109"/>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21">
       <c r="A110" s="83" t="s">
         <v>263</v>
       </c>
@@ -12079,7 +12050,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21">
       <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
@@ -12108,7 +12079,7 @@
       </c>
       <c r="U111" s="19"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21">
       <c r="A112" s="1" t="s">
         <v>225</v>
       </c>
@@ -12136,7 +12107,7 @@
       <c r="M112" s="1"/>
       <c r="U112" s="19"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16">
       <c r="A113" s="5" t="s">
         <v>323</v>
       </c>
@@ -12164,7 +12135,7 @@
       <c r="M113" s="1"/>
       <c r="P113" s="19"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16">
       <c r="A114" s="5" t="s">
         <v>162</v>
       </c>
@@ -12189,7 +12160,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -12218,19 +12189,19 @@
       </c>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16">
       <c r="A116" s="68"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16">
       <c r="A117" s="68"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="95" t="s">
+    <row r="118" spans="1:16">
+      <c r="A118" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="95"/>
+      <c r="B118" s="87"/>
       <c r="C118" s="104" t="s">
         <v>347</v>
       </c>
@@ -12245,7 +12216,7 @@
       <c r="L118" s="9"/>
       <c r="M118" s="68"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -12284,7 +12255,7 @@
       </c>
       <c r="M119" s="69"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16">
       <c r="A120" s="7" t="s">
         <v>86</v>
       </c>
@@ -12307,10 +12278,10 @@
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
       <c r="L120" s="17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="1" t="s">
         <v>88</v>
       </c>
@@ -12333,10 +12304,10 @@
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
       <c r="L121" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1" t="s">
         <v>90</v>
       </c>
@@ -12358,7 +12329,7 @@
       <c r="K122" s="10"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16">
       <c r="A123" s="1" t="s">
         <v>92</v>
       </c>
@@ -12381,7 +12352,7 @@
       <c r="L123" s="2"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16">
       <c r="A124" s="1" t="s">
         <v>94</v>
       </c>
@@ -12406,7 +12377,7 @@
       <c r="L124" s="2"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16">
       <c r="A125" s="8" t="s">
         <v>96</v>
       </c>
@@ -12429,7 +12400,7 @@
       <c r="L125" s="2"/>
       <c r="O125" s="13"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16">
       <c r="A126" s="1" t="s">
         <v>388</v>
       </c>
@@ -12450,7 +12421,7 @@
       <c r="L126" s="2"/>
       <c r="O126" s="13"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16">
       <c r="A127" s="1" t="s">
         <v>332</v>
       </c>
@@ -12473,7 +12444,7 @@
       <c r="L127" s="2"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16">
       <c r="A128" s="1" t="s">
         <v>333</v>
       </c>
@@ -12494,7 +12465,7 @@
       <c r="L128" s="2"/>
       <c r="O128" s="13"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16">
       <c r="A129" s="1" t="s">
         <v>334</v>
       </c>
@@ -12517,7 +12488,7 @@
       <c r="L129" s="2"/>
       <c r="O129" s="13"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16">
       <c r="A130" s="1" t="s">
         <v>335</v>
       </c>
@@ -12540,23 +12511,23 @@
       <c r="L130" s="2"/>
       <c r="O130" s="13"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16">
       <c r="A131" s="70"/>
       <c r="O131" s="13"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16">
       <c r="A132" s="70"/>
       <c r="P132" s="13"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16">
       <c r="A133" s="68"/>
       <c r="P133" s="13"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A134" s="95" t="s">
+    <row r="134" spans="1:16">
+      <c r="A134" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="95"/>
+      <c r="B134" s="87"/>
       <c r="C134" s="104" t="s">
         <v>166</v>
       </c>
@@ -12571,7 +12542,7 @@
       <c r="L134" s="9"/>
       <c r="P134" s="13"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16">
       <c r="A135" s="2" t="s">
         <v>25</v>
       </c>
@@ -12612,7 +12583,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16">
       <c r="A136" s="14" t="s">
         <v>448</v>
       </c>
@@ -12638,7 +12609,7 @@
       <c r="K136" s="67"/>
       <c r="L136" s="15"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16">
       <c r="A137" s="14" t="s">
         <v>263</v>
       </c>
@@ -12665,7 +12636,7 @@
       <c r="L137" s="44"/>
       <c r="P137" s="13"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16">
       <c r="A138" s="1" t="s">
         <v>37</v>
       </c>
@@ -12689,7 +12660,7 @@
       <c r="K138" s="10"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -12717,7 +12688,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16">
       <c r="A140" s="1" t="s">
         <v>169</v>
       </c>
@@ -12741,7 +12712,7 @@
       <c r="K140" s="10"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16">
       <c r="A141" s="6" t="s">
         <v>171</v>
       </c>
@@ -12763,7 +12734,7 @@
       <c r="K141" s="10"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16">
       <c r="A142" s="6" t="s">
         <v>331</v>
       </c>
@@ -12785,7 +12756,7 @@
       <c r="K142" s="10"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16">
       <c r="A143" s="1" t="s">
         <v>172</v>
       </c>
@@ -12807,17 +12778,17 @@
       <c r="K143" s="10"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16">
       <c r="A144" s="76"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21">
       <c r="A145" s="70"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A147" s="95" t="s">
+    <row r="147" spans="1:21">
+      <c r="A147" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="95"/>
+      <c r="B147" s="87"/>
       <c r="C147" s="104" t="s">
         <v>386</v>
       </c>
@@ -12831,7 +12802,7 @@
       <c r="K147" s="74"/>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21">
       <c r="A148" s="2" t="s">
         <v>25</v>
       </c>
@@ -12869,7 +12840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21">
       <c r="A149" s="1" t="s">
         <v>257</v>
       </c>
@@ -12897,7 +12868,7 @@
       <c r="K149" s="10"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" s="13" customFormat="1">
       <c r="A150" s="1" t="s">
         <v>337</v>
       </c>
@@ -12925,7 +12896,7 @@
       <c r="T150"/>
       <c r="U150"/>
     </row>
-    <row r="151" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" s="13" customFormat="1">
       <c r="A151" s="69"/>
       <c r="B151" s="27"/>
       <c r="F151" s="73"/>
@@ -12941,7 +12912,7 @@
       <c r="T151"/>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" s="13" customFormat="1">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="E152" s="28"/>
@@ -12958,7 +12929,7 @@
       <c r="T152"/>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="13"/>
@@ -12973,11 +12944,11 @@
       <c r="L153" s="13"/>
       <c r="U153" s="13"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A154" s="95" t="s">
+    <row r="154" spans="1:21">
+      <c r="A154" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="95"/>
+      <c r="B154" s="87"/>
       <c r="C154" s="102" t="s">
         <v>385</v>
       </c>
@@ -12992,7 +12963,7 @@
       <c r="L154" s="9"/>
       <c r="U154" s="13"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21">
       <c r="A155" s="2" t="s">
         <v>25</v>
       </c>
@@ -13031,7 +13002,7 @@
       </c>
       <c r="U155" s="13"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21">
       <c r="A156" s="2" t="s">
         <v>389</v>
       </c>
@@ -13058,7 +13029,7 @@
       <c r="L156" s="3"/>
       <c r="U156" s="13"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21">
       <c r="A157" s="2" t="s">
         <v>324</v>
       </c>
@@ -13083,7 +13054,7 @@
       <c r="L157" s="75"/>
       <c r="U157" s="13"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21">
       <c r="A158" s="2" t="s">
         <v>325</v>
       </c>
@@ -13108,7 +13079,7 @@
       <c r="L158" s="75"/>
       <c r="U158" s="13"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21">
       <c r="A159" s="2" t="s">
         <v>326</v>
       </c>
@@ -13133,7 +13104,7 @@
       <c r="L159" s="75"/>
       <c r="U159" s="13"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21">
       <c r="A160" s="2" t="s">
         <v>327</v>
       </c>
@@ -13154,7 +13125,7 @@
       <c r="L160" s="75"/>
       <c r="U160" s="13"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21">
       <c r="A161" s="2" t="s">
         <v>328</v>
       </c>
@@ -13176,7 +13147,7 @@
       <c r="P161" s="13"/>
       <c r="U161" s="13"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21">
       <c r="A162" s="1" t="s">
         <v>244</v>
       </c>
@@ -13201,7 +13172,7 @@
       <c r="L162" s="22"/>
       <c r="P162" s="13"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21">
       <c r="A163" s="1" t="s">
         <v>242</v>
       </c>
@@ -13226,21 +13197,21 @@
       <c r="L163" s="2"/>
       <c r="P163" s="13"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21">
       <c r="A164" s="69"/>
       <c r="Q164" s="13"/>
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
       <c r="T164" s="13"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21">
       <c r="A165" s="69"/>
       <c r="Q165" s="13"/>
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21">
       <c r="A166" s="69"/>
       <c r="Q166" s="13"/>
       <c r="R166" s="13"/>
@@ -13249,16 +13220,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="P14:S16"/>
+    <mergeCell ref="S20:T20"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="S32:T32"/>
@@ -13270,13 +13238,16 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="P14:S16"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A134:B134"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataBase/資料庫建立檢表0810.xlsx
+++ b/DataBase/資料庫建立檢表0810.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3277907D-AC03-4FDF-9F9C-33CD9E32597D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10524" yWindow="0" windowWidth="12516" windowHeight="10044" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="5928" yWindow="252" windowWidth="16584" windowHeight="12288" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="主要檢表" sheetId="4" r:id="rId1"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="456">
   <si>
     <t>Table名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1624,10 +1625,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>優惠券? 還是優惠計算公式?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表單生成時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1892,17 +1889,25 @@
   </si>
   <si>
     <t>PROBLEM_ORDID_FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2497,18 +2502,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2530,6 +2523,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2537,9 +2545,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2615,7 +2620,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2647,9 +2652,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2681,6 +2704,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2856,7 +2897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2866,7 +2907,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="34.109375" bestFit="1" customWidth="1"/>
@@ -2887,15 +2928,15 @@
     <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="87"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="12"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -2908,7 +2949,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2946,7 +2987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -2974,7 +3015,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -3003,7 +3044,7 @@
       </c>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3027,7 +3068,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="56"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -3051,7 +3092,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -3075,7 +3116,7 @@
       <c r="M7" s="54"/>
       <c r="N7" s="56"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>228</v>
       </c>
@@ -3099,7 +3140,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="56"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
@@ -3123,11 +3164,11 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="19"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
       <c r="U9" s="19"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -3157,7 +3198,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>112</v>
       </c>
@@ -3187,7 +3228,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>114</v>
       </c>
@@ -3215,7 +3256,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>116</v>
       </c>
@@ -3236,17 +3277,17 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-      <c r="P13" s="91" t="s">
+      <c r="P13" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="Q13" s="92"/>
-      <c r="R13" s="92"/>
-      <c r="S13" s="92"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="88"/>
+      <c r="S13" s="88"/>
       <c r="T13" s="47"/>
       <c r="U13" s="47"/>
       <c r="V13" s="48"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>232</v>
       </c>
@@ -3265,15 +3306,15 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="94"/>
-      <c r="S14" s="94"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="90"/>
+      <c r="S14" s="90"/>
       <c r="T14" s="40"/>
       <c r="U14" s="40"/>
       <c r="V14" s="49"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>295</v>
       </c>
@@ -3294,15 +3335,15 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>159</v>
       </c>
@@ -3333,7 +3374,7 @@
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="13"/>
@@ -3354,7 +3395,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -3375,7 +3416,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P19" s="50" t="s">
         <v>88</v>
       </c>
@@ -3385,20 +3426,20 @@
       <c r="R19" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22">
-      <c r="A20" s="87" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="90" t="s">
+      <c r="B20" s="95"/>
+      <c r="C20" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="87"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="12"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -3421,7 +3462,7 @@
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -3473,7 +3514,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>258</v>
       </c>
@@ -3511,7 +3552,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>118</v>
       </c>
@@ -3551,7 +3592,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
@@ -3578,7 +3619,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
@@ -3613,7 +3654,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>107</v>
       </c>
@@ -3643,12 +3684,12 @@
       <c r="R26" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -3683,7 +3724,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -3716,7 +3757,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -3749,7 +3790,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -3778,7 +3819,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -3807,7 +3848,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>127</v>
       </c>
@@ -3840,7 +3881,7 @@
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>129</v>
       </c>
@@ -3872,12 +3913,12 @@
       <c r="R33" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>130</v>
       </c>
@@ -3914,7 +3955,7 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:25" s="19" customFormat="1">
+    <row r="35" spans="1:25" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>131</v>
       </c>
@@ -3951,7 +3992,7 @@
       <c r="U35" s="40"/>
       <c r="V35" s="55"/>
     </row>
-    <row r="36" spans="1:25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>133</v>
       </c>
@@ -3982,7 +4023,7 @@
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>134</v>
       </c>
@@ -4011,27 +4052,27 @@
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:25">
-      <c r="P38" s="95" t="s">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P38" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:25">
-      <c r="P39" s="95"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="P39" s="91"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:25" ht="24.6">
+    <row r="40" spans="1:25" ht="24.6" x14ac:dyDescent="0.3">
       <c r="P40" s="57" t="s">
         <v>280</v>
       </c>
@@ -4045,26 +4086,26 @@
       <c r="X40" s="37"/>
       <c r="Y40" s="37"/>
     </row>
-    <row r="41" spans="1:25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="P41" s="50"/>
       <c r="Q41" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R41" s="89"/>
-      <c r="S41" s="89"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
       <c r="T41" s="13"/>
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:25">
-      <c r="A42" s="87" t="s">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="87" t="s">
+      <c r="B42" s="95"/>
+      <c r="C42" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="87"/>
+      <c r="D42" s="95"/>
       <c r="E42" s="12"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
@@ -4084,7 +4125,7 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>25</v>
       </c>
@@ -4140,7 +4181,7 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>258</v>
       </c>
@@ -4182,7 +4223,7 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>118</v>
       </c>
@@ -4229,7 +4270,7 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -4270,7 +4311,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="30" t="s">
         <v>257</v>
       </c>
@@ -4312,7 +4353,7 @@
       <c r="U47" s="13"/>
       <c r="V47" s="49"/>
     </row>
-    <row r="48" spans="1:25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>37</v>
       </c>
@@ -4344,7 +4385,7 @@
       <c r="U48" s="13"/>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22" ht="24.6">
+    <row r="49" spans="1:22" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>140</v>
       </c>
@@ -4375,7 +4416,7 @@
       <c r="U49" s="39"/>
       <c r="V49" s="60"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>142</v>
       </c>
@@ -4400,13 +4441,13 @@
       <c r="Q50" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R50" s="89"/>
-      <c r="S50" s="89"/>
+      <c r="R50" s="96"/>
+      <c r="S50" s="96"/>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>143</v>
       </c>
@@ -4435,7 +4476,7 @@
       <c r="U51" s="13"/>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>144</v>
       </c>
@@ -4474,7 +4515,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>145</v>
       </c>
@@ -4513,7 +4554,7 @@
       </c>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>126</v>
       </c>
@@ -4552,7 +4593,7 @@
       </c>
       <c r="V54" s="49"/>
     </row>
-    <row r="55" spans="1:22">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>19</v>
       </c>
@@ -4589,7 +4630,7 @@
       </c>
       <c r="V55" s="49"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>107</v>
       </c>
@@ -4628,7 +4669,7 @@
       </c>
       <c r="V56" s="49"/>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>102</v>
       </c>
@@ -4671,7 +4712,7 @@
       </c>
       <c r="V57" s="49"/>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P58" s="50"/>
       <c r="Q58" s="38" t="s">
         <v>270</v>
@@ -4690,7 +4731,7 @@
       </c>
       <c r="V58" s="49"/>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P59" s="50"/>
       <c r="Q59" s="38" t="s">
         <v>270</v>
@@ -4709,7 +4750,7 @@
       </c>
       <c r="V59" s="49"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P60" s="50"/>
       <c r="Q60" s="39"/>
       <c r="R60" s="39"/>
@@ -4718,7 +4759,7 @@
       <c r="U60" s="13"/>
       <c r="V60" s="49"/>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P61" s="61"/>
       <c r="Q61" s="62"/>
       <c r="R61" s="62"/>
@@ -4727,15 +4768,15 @@
       <c r="U61" s="62"/>
       <c r="V61" s="63"/>
     </row>
-    <row r="62" spans="1:22">
-      <c r="A62" s="87" t="s">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87" t="s">
+      <c r="B62" s="95"/>
+      <c r="C62" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="D62" s="87"/>
+      <c r="D62" s="95"/>
       <c r="E62" s="12"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -4753,7 +4794,7 @@
       <c r="T62" s="13"/>
       <c r="U62" s="13"/>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>25</v>
       </c>
@@ -4794,7 +4835,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>269</v>
       </c>
@@ -4821,7 +4862,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4853,7 +4894,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>138</v>
       </c>
@@ -4879,7 +4920,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="s">
         <v>257</v>
       </c>
@@ -4906,7 +4947,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -4931,7 +4972,7 @@
         <v>100001</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="30" t="s">
         <v>225</v>
       </c>
@@ -4958,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>250</v>
       </c>
@@ -4980,7 +5021,7 @@
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>251</v>
       </c>
@@ -5002,7 +5043,7 @@
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>148</v>
       </c>
@@ -5025,7 +5066,7 @@
       <c r="L72" s="2"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>149</v>
       </c>
@@ -5047,7 +5088,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:21" s="13" customFormat="1">
+    <row r="74" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
@@ -5075,7 +5116,7 @@
       <c r="T74"/>
       <c r="U74"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1">
+    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>150</v>
       </c>
@@ -5101,7 +5142,7 @@
       <c r="T75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21" s="13" customFormat="1">
+    <row r="76" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -5127,7 +5168,7 @@
       <c r="T76"/>
       <c r="U76"/>
     </row>
-    <row r="77" spans="1:21" s="13" customFormat="1">
+    <row r="77" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>145</v>
       </c>
@@ -5154,7 +5195,7 @@
       <c r="S77"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:21" s="13" customFormat="1">
+    <row r="78" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>126</v>
       </c>
@@ -5181,7 +5222,7 @@
       <c r="S78"/>
       <c r="T78"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>19</v>
       </c>
@@ -5203,7 +5244,7 @@
       <c r="P79" s="13"/>
       <c r="U79" s="13"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>107</v>
       </c>
@@ -5227,7 +5268,7 @@
       <c r="P80" s="13"/>
       <c r="U80" s="13"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>102</v>
       </c>
@@ -5255,41 +5296,41 @@
       <c r="P81" s="13"/>
       <c r="U81" s="13"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q85" s="13"/>
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
     </row>
-    <row r="86" spans="1:21" s="13" customFormat="1">
-      <c r="A86" s="87" t="s">
+    <row r="86" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B86" s="87"/>
-      <c r="C86" s="87" t="s">
+      <c r="B86" s="95"/>
+      <c r="C86" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="D86" s="87"/>
+      <c r="D86" s="95"/>
       <c r="E86" s="12"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
@@ -5301,7 +5342,7 @@
       <c r="P86"/>
       <c r="U86"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
         <v>25</v>
       </c>
@@ -5339,7 +5380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
         <v>263</v>
       </c>
@@ -5366,7 +5407,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>37</v>
       </c>
@@ -5393,7 +5434,7 @@
       <c r="L89" s="2"/>
       <c r="U89" s="13"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>39</v>
       </c>
@@ -5415,7 +5456,7 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>152</v>
       </c>
@@ -5438,7 +5479,7 @@
       <c r="L91" s="2"/>
       <c r="P91" s="13"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>154</v>
       </c>
@@ -5458,7 +5499,7 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>159</v>
       </c>
@@ -5480,7 +5521,7 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>157</v>
       </c>
@@ -5506,7 +5547,7 @@
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="30" t="s">
         <v>257</v>
       </c>
@@ -5531,7 +5572,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>295</v>
       </c>
@@ -5553,15 +5594,15 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="87" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87" t="s">
+      <c r="B100" s="95"/>
+      <c r="C100" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="D100" s="87"/>
+      <c r="D100" s="95"/>
       <c r="E100" s="12"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
@@ -5571,7 +5612,7 @@
       <c r="K100" s="9"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>25</v>
       </c>
@@ -5609,7 +5650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>263</v>
       </c>
@@ -5636,7 +5677,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>37</v>
       </c>
@@ -5665,7 +5706,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
@@ -5689,7 +5730,7 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>140</v>
       </c>
@@ -5711,7 +5752,7 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>248</v>
       </c>
@@ -5733,7 +5774,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>154</v>
       </c>
@@ -5753,7 +5794,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>159</v>
       </c>
@@ -5775,7 +5816,7 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>157</v>
       </c>
@@ -5799,7 +5840,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="30" t="s">
         <v>257</v>
       </c>
@@ -5821,7 +5862,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="45" t="s">
         <v>295</v>
       </c>
@@ -5843,15 +5884,15 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="115" spans="1:21">
-      <c r="A115" s="87" t="s">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A115" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="87"/>
-      <c r="C115" s="87" t="s">
+      <c r="B115" s="95"/>
+      <c r="C115" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="87"/>
+      <c r="D115" s="95"/>
       <c r="E115" s="12"/>
       <c r="F115" s="9"/>
       <c r="G115" s="9"/>
@@ -5861,7 +5902,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>25</v>
       </c>
@@ -5899,7 +5940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="31" t="s">
         <v>269</v>
       </c>
@@ -5929,7 +5970,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="7"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>161</v>
       </c>
@@ -5961,7 +6002,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:21" s="19" customFormat="1">
+    <row r="119" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5" t="s">
         <v>217</v>
       </c>
@@ -5991,7 +6032,7 @@
       <c r="T119"/>
       <c r="U119"/>
     </row>
-    <row r="120" spans="1:21" s="19" customFormat="1">
+    <row r="120" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>263</v>
       </c>
@@ -6024,7 +6065,7 @@
       <c r="T120"/>
       <c r="U120"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -6049,7 +6090,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="30" t="s">
         <v>225</v>
       </c>
@@ -6077,7 +6118,7 @@
       </c>
       <c r="U122" s="19"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>140</v>
       </c>
@@ -6100,7 +6141,7 @@
       <c r="L123" s="2"/>
       <c r="U123" s="19"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="5" t="s">
         <v>164</v>
       </c>
@@ -6125,7 +6166,7 @@
       <c r="L124" s="2"/>
       <c r="P124" s="19"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="5" t="s">
         <v>162</v>
       </c>
@@ -6146,7 +6187,7 @@
       <c r="L125" s="2"/>
       <c r="P125" s="19"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>107</v>
       </c>
@@ -6168,7 +6209,7 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>102</v>
       </c>
@@ -6198,21 +6239,21 @@
       <c r="S127" s="19"/>
       <c r="T127" s="19"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q128" s="19"/>
       <c r="R128" s="19"/>
       <c r="S128" s="19"/>
       <c r="T128" s="19"/>
     </row>
-    <row r="131" spans="1:16">
-      <c r="A131" s="87" t="s">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A131" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B131" s="87"/>
-      <c r="C131" s="87" t="s">
+      <c r="B131" s="95"/>
+      <c r="C131" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D131" s="87"/>
+      <c r="D131" s="95"/>
       <c r="E131" s="12"/>
       <c r="F131" s="9"/>
       <c r="G131" s="9"/>
@@ -6222,7 +6263,7 @@
       <c r="K131" s="9"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>25</v>
       </c>
@@ -6260,7 +6301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>86</v>
       </c>
@@ -6286,7 +6327,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="31" t="s">
         <v>269</v>
       </c>
@@ -6310,7 +6351,7 @@
       <c r="K134" s="2"/>
       <c r="L134" s="22"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>88</v>
       </c>
@@ -6336,7 +6377,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>90</v>
       </c>
@@ -6358,7 +6399,7 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>92</v>
       </c>
@@ -6380,7 +6421,7 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>94</v>
       </c>
@@ -6405,7 +6446,7 @@
       <c r="L138" s="2"/>
       <c r="O138" s="13"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>96</v>
       </c>
@@ -6428,7 +6469,7 @@
       <c r="L139" s="2"/>
       <c r="O139" s="13"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>235</v>
       </c>
@@ -6449,24 +6490,24 @@
       <c r="L140" s="2"/>
       <c r="O140" s="13"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O141" s="13"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O142" s="13"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P143" s="13"/>
     </row>
-    <row r="144" spans="1:16">
-      <c r="A144" s="87" t="s">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B144" s="87"/>
-      <c r="C144" s="87" t="s">
+      <c r="B144" s="95"/>
+      <c r="C144" s="95" t="s">
         <v>166</v>
       </c>
-      <c r="D144" s="87"/>
+      <c r="D144" s="95"/>
       <c r="E144" s="12"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
@@ -6477,7 +6518,7 @@
       <c r="L144" s="9"/>
       <c r="P144" s="13"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>25</v>
       </c>
@@ -6516,7 +6557,7 @@
       </c>
       <c r="P145" s="13"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>37</v>
       </c>
@@ -6539,7 +6580,7 @@
       <c r="L146" s="2"/>
       <c r="P146" s="13"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>140</v>
       </c>
@@ -6562,7 +6603,7 @@
       <c r="L147" s="2"/>
       <c r="P147" s="13"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>167</v>
       </c>
@@ -6584,7 +6625,7 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>169</v>
       </c>
@@ -6606,7 +6647,7 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>171</v>
       </c>
@@ -6628,7 +6669,7 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>172</v>
       </c>
@@ -6650,15 +6691,15 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
     </row>
-    <row r="155" spans="1:21">
-      <c r="A155" s="87" t="s">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A155" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="87" t="s">
+      <c r="B155" s="95"/>
+      <c r="C155" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="D155" s="87"/>
+      <c r="D155" s="95"/>
       <c r="E155" s="24"/>
       <c r="F155" s="9"/>
       <c r="G155" s="9"/>
@@ -6668,7 +6709,7 @@
       <c r="K155" s="9"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>25</v>
       </c>
@@ -6706,7 +6747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="30" t="s">
         <v>257</v>
       </c>
@@ -6732,7 +6773,7 @@
       <c r="K157" s="2"/>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>239</v>
       </c>
@@ -6754,7 +6795,7 @@
       <c r="K158" s="2"/>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:21" s="13" customFormat="1">
+    <row r="159" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="26"/>
       <c r="B159" s="27"/>
       <c r="P159"/>
@@ -6764,7 +6805,7 @@
       <c r="T159"/>
       <c r="U159"/>
     </row>
-    <row r="160" spans="1:21" s="13" customFormat="1">
+    <row r="160" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="26"/>
       <c r="B160" s="26"/>
       <c r="E160" s="28"/>
@@ -6775,7 +6816,7 @@
       <c r="T160"/>
       <c r="U160"/>
     </row>
-    <row r="161" spans="1:21" s="13" customFormat="1">
+    <row r="161" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="E161" s="28"/>
@@ -6786,15 +6827,15 @@
       <c r="T161"/>
       <c r="U161"/>
     </row>
-    <row r="162" spans="1:21">
-      <c r="A162" s="87" t="s">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A162" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="87"/>
-      <c r="C162" s="87" t="s">
+      <c r="B162" s="95"/>
+      <c r="C162" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="D162" s="87"/>
+      <c r="D162" s="95"/>
       <c r="E162" s="24"/>
       <c r="F162" s="9"/>
       <c r="G162" s="9"/>
@@ -6805,7 +6846,7 @@
       <c r="L162" s="9"/>
       <c r="U162" s="13"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>25</v>
       </c>
@@ -6844,7 +6885,7 @@
       </c>
       <c r="U163" s="13"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>244</v>
       </c>
@@ -6870,7 +6911,7 @@
       <c r="P164" s="13"/>
       <c r="U164" s="13"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>242</v>
       </c>
@@ -6895,22 +6936,22 @@
       <c r="L165" s="2"/>
       <c r="P165" s="13"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P166" s="13"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q167" s="13"/>
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q168" s="13"/>
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="Q169" s="13"/>
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
@@ -6918,20 +6959,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="P13:S15"/>
-    <mergeCell ref="P38:S39"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
     <mergeCell ref="A155:B155"/>
     <mergeCell ref="C155:D155"/>
     <mergeCell ref="A162:B162"/>
@@ -6948,6 +6975,20 @@
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="P13:S15"/>
+    <mergeCell ref="P38:S39"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="R41:S41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6956,293 +6997,285 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:15">
-      <c r="B1" s="101" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B1" s="98" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="E1" s="101" t="s">
+      <c r="C1" s="98"/>
+      <c r="E1" s="98" t="s">
         <v>303</v>
       </c>
-      <c r="F1" s="101"/>
-      <c r="H1" s="100" t="s">
+      <c r="F1" s="98"/>
+      <c r="H1" s="101" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="100"/>
-      <c r="K1" s="100" t="s">
+      <c r="I1" s="101"/>
+      <c r="K1" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="L1" s="100"/>
-      <c r="N1" s="101" t="s">
+      <c r="L1" s="101"/>
+      <c r="N1" s="98" t="s">
         <v>312</v>
       </c>
-      <c r="O1" s="101"/>
-    </row>
-    <row r="2" spans="2:15">
-      <c r="B2" s="98" t="s">
+      <c r="O1" s="98"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="99" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="98" t="s">
+      <c r="C2" s="100"/>
+      <c r="E2" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="H2" s="98" t="s">
+      <c r="F2" s="100"/>
+      <c r="H2" s="99" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="99"/>
-      <c r="K2" s="98" t="s">
+      <c r="I2" s="100"/>
+      <c r="K2" s="99" t="s">
         <v>317</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="N2" s="98" t="s">
+      <c r="L2" s="100"/>
+      <c r="N2" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="99"/>
-    </row>
-    <row r="3" spans="2:15">
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-    </row>
-    <row r="4" spans="2:15">
-      <c r="B4" s="99"/>
-      <c r="C4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-    </row>
-    <row r="5" spans="2:15">
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-    </row>
-    <row r="6" spans="2:15">
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-    </row>
-    <row r="7" spans="2:15">
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="99"/>
-    </row>
-    <row r="8" spans="2:15">
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-    </row>
-    <row r="11" spans="2:15">
-      <c r="B11" s="101" t="s">
+      <c r="O2" s="100"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="N4" s="100"/>
+      <c r="O4" s="100"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="C11" s="101"/>
-      <c r="E11" s="101" t="s">
+      <c r="C11" s="98"/>
+      <c r="E11" s="98" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="101"/>
-      <c r="H11" s="100" t="s">
+      <c r="F11" s="98"/>
+      <c r="H11" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="I11" s="100"/>
-      <c r="K11" s="100" t="s">
+      <c r="I11" s="101"/>
+      <c r="K11" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="L11" s="100"/>
-      <c r="N11" s="101" t="s">
+      <c r="L11" s="101"/>
+      <c r="N11" s="98" t="s">
         <v>311</v>
       </c>
-      <c r="O11" s="101"/>
-    </row>
-    <row r="12" spans="2:15" ht="16.2" customHeight="1">
-      <c r="B12" s="98" t="s">
+      <c r="O11" s="98"/>
+    </row>
+    <row r="12" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="E12" s="98" t="s">
+      <c r="C12" s="100"/>
+      <c r="E12" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="99"/>
-      <c r="H12" s="98" t="s">
+      <c r="F12" s="100"/>
+      <c r="H12" s="99" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="99"/>
-      <c r="K12" s="98" t="s">
+      <c r="I12" s="100"/>
+      <c r="K12" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="L12" s="99"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="100"/>
+      <c r="N12" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="O12" s="99"/>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99"/>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="99"/>
-    </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="99"/>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="99"/>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-    </row>
-    <row r="21" spans="2:15">
-      <c r="E21" s="101" t="s">
+      <c r="O12" s="100"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="100"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="100"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="100"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="100"/>
+      <c r="N16" s="100"/>
+      <c r="O16" s="100"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="100"/>
+      <c r="N17" s="100"/>
+      <c r="O17" s="100"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E21" s="98" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="101"/>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="E22" s="98" t="s">
+      <c r="F21" s="98"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E22" s="99" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="99"/>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-    </row>
-    <row r="25" spans="2:15">
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
+      <c r="F22" s="100"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O18"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O8"/>
-    <mergeCell ref="B2:C8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C18"/>
     <mergeCell ref="E22:F28"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="K2:L8"/>
@@ -7257,6 +7290,14 @@
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I18"/>
     <mergeCell ref="E21:F21"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O18"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O8"/>
+    <mergeCell ref="B2:C8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7265,12 +7306,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7279,14 +7320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J129"/>
   <sheetViews>
     <sheetView topLeftCell="A91" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="19.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
@@ -7297,15 +7338,15 @@
     <col min="10" max="10" width="23.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87" t="s">
+      <c r="B1" s="95"/>
+      <c r="C1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="87"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
@@ -7313,7 +7354,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -7345,7 +7386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -7365,7 +7406,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -7379,7 +7420,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -7393,7 +7434,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -7407,7 +7448,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>99</v>
       </c>
@@ -7421,7 +7462,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>100</v>
       </c>
@@ -7435,7 +7476,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -7449,7 +7490,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -7463,7 +7504,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -7477,15 +7518,15 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="87" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="90" t="s">
+      <c r="B16" s="95"/>
+      <c r="C16" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="87"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -7493,7 +7534,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -7525,7 +7566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -7541,7 +7582,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -7557,7 +7598,7 @@
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -7573,7 +7614,7 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -7589,7 +7630,7 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -7605,7 +7646,7 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -7621,7 +7662,7 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -7637,7 +7678,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -7653,15 +7694,15 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="87" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87" t="s">
+      <c r="B30" s="95"/>
+      <c r="C30" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="87"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
@@ -7669,7 +7710,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -7701,7 +7742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -7717,7 +7758,7 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
@@ -7733,7 +7774,7 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -7749,7 +7790,7 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -7765,7 +7806,7 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>45</v>
       </c>
@@ -7781,15 +7822,15 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="87" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="87"/>
-      <c r="C41" s="87" t="s">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="87"/>
+      <c r="D41" s="95"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -7797,7 +7838,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>25</v>
       </c>
@@ -7829,7 +7870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>18</v>
       </c>
@@ -7845,7 +7886,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
@@ -7861,7 +7902,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>37</v>
       </c>
@@ -7877,7 +7918,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
@@ -7893,7 +7934,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>51</v>
       </c>
@@ -7909,7 +7950,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>53</v>
       </c>
@@ -7925,7 +7966,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
@@ -7941,7 +7982,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>57</v>
       </c>
@@ -7957,15 +7998,15 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87" t="s">
+      <c r="B55" s="95"/>
+      <c r="C55" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="D55" s="87"/>
+      <c r="D55" s="95"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
@@ -7973,7 +8014,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -8005,7 +8046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>37</v>
       </c>
@@ -8021,7 +8062,7 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>39</v>
       </c>
@@ -8037,7 +8078,7 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>62</v>
       </c>
@@ -8053,7 +8094,7 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>64</v>
       </c>
@@ -8069,7 +8110,7 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>66</v>
       </c>
@@ -8085,15 +8126,15 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="87" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87" t="s">
+      <c r="B66" s="95"/>
+      <c r="C66" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="87"/>
+      <c r="D66" s="95"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -8101,7 +8142,7 @@
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>25</v>
       </c>
@@ -8133,7 +8174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>37</v>
       </c>
@@ -8149,7 +8190,7 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
@@ -8165,7 +8206,7 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -8181,7 +8222,7 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
@@ -8197,7 +8238,7 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>66</v>
       </c>
@@ -8213,15 +8254,15 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="87" t="s">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87" t="s">
+      <c r="B77" s="95"/>
+      <c r="C77" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="87"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -8229,7 +8270,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>25</v>
       </c>
@@ -8261,7 +8302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>70</v>
       </c>
@@ -8277,7 +8318,7 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>72</v>
       </c>
@@ -8293,7 +8334,7 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -8309,7 +8350,7 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
@@ -8325,7 +8366,7 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>21</v>
       </c>
@@ -8341,7 +8382,7 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -8357,7 +8398,7 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>23</v>
       </c>
@@ -8373,7 +8414,7 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>24</v>
       </c>
@@ -8389,15 +8430,15 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="87" t="s">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87" t="s">
+      <c r="B91" s="95"/>
+      <c r="C91" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="87"/>
+      <c r="D91" s="95"/>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="9"/>
@@ -8405,7 +8446,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>25</v>
       </c>
@@ -8437,7 +8478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>70</v>
       </c>
@@ -8453,7 +8494,7 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>47</v>
       </c>
@@ -8469,7 +8510,7 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>37</v>
       </c>
@@ -8485,7 +8526,7 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>75</v>
       </c>
@@ -8501,7 +8542,7 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>51</v>
       </c>
@@ -8517,7 +8558,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>57</v>
       </c>
@@ -8533,7 +8574,7 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>77</v>
       </c>
@@ -8549,7 +8590,7 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>79</v>
       </c>
@@ -8565,7 +8606,7 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>55</v>
       </c>
@@ -8581,15 +8622,15 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
-    <row r="106" spans="1:10">
-      <c r="A106" s="87" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="87"/>
-      <c r="C106" s="87" t="s">
+      <c r="B106" s="95"/>
+      <c r="C106" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D106" s="87"/>
+      <c r="D106" s="95"/>
       <c r="E106" s="9"/>
       <c r="F106" s="9"/>
       <c r="G106" s="9"/>
@@ -8597,7 +8638,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>25</v>
       </c>
@@ -8629,7 +8670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>37</v>
       </c>
@@ -8645,7 +8686,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>82</v>
       </c>
@@ -8661,15 +8702,15 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="87" t="s">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B114" s="87"/>
-      <c r="C114" s="87" t="s">
+      <c r="B114" s="95"/>
+      <c r="C114" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="D114" s="87"/>
+      <c r="D114" s="95"/>
       <c r="E114" s="9"/>
       <c r="F114" s="9"/>
       <c r="G114" s="9"/>
@@ -8677,7 +8718,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>25</v>
       </c>
@@ -8709,7 +8750,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>37</v>
       </c>
@@ -8725,7 +8766,7 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>82</v>
       </c>
@@ -8741,15 +8782,15 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="87" t="s">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="87"/>
-      <c r="C122" s="87" t="s">
+      <c r="B122" s="95"/>
+      <c r="C122" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="D122" s="87"/>
+      <c r="D122" s="95"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
       <c r="G122" s="9"/>
@@ -8757,7 +8798,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>25</v>
       </c>
@@ -8789,7 +8830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>86</v>
       </c>
@@ -8805,7 +8846,7 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>88</v>
       </c>
@@ -8821,7 +8862,7 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>90</v>
       </c>
@@ -8837,7 +8878,7 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>92</v>
       </c>
@@ -8853,7 +8894,7 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>94</v>
       </c>
@@ -8869,7 +8910,7 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>96</v>
       </c>
@@ -8887,18 +8928,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="A122:B122"/>
@@ -8909,6 +8938,18 @@
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="C106:D106"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8917,17 +8958,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:V166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L122" sqref="L122"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
@@ -8951,11 +8992,11 @@
     <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
+      <c r="B1" s="95"/>
       <c r="C1" s="104" t="s">
         <v>1</v>
       </c>
@@ -8972,7 +9013,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -9010,7 +9051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -9034,13 +9075,13 @@
         <v>101</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
@@ -9052,11 +9093,11 @@
         <v>177</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -9067,7 +9108,7 @@
       <c r="N4" s="66"/>
       <c r="O4" s="25"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -9079,11 +9120,11 @@
         <v>177</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -9093,7 +9134,7 @@
       <c r="M5" s="54"/>
       <c r="N5" s="66"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>107</v>
       </c>
@@ -9105,11 +9146,11 @@
         <v>177</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -9119,7 +9160,7 @@
       <c r="M6" s="54"/>
       <c r="N6" s="66"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>230</v>
       </c>
@@ -9131,7 +9172,7 @@
         <v>177</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -9145,21 +9186,21 @@
       <c r="M7" s="54"/>
       <c r="N7" s="66"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -9171,7 +9212,7 @@
       <c r="M8" s="54"/>
       <c r="N8" s="73"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>228</v>
       </c>
@@ -9183,7 +9224,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -9195,7 +9236,7 @@
       <c r="M9" s="54"/>
       <c r="N9" s="66"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
@@ -9207,7 +9248,7 @@
         <v>178</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -9221,11 +9262,11 @@
       <c r="P10" s="19"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="19"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
       <c r="U10" s="19"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
@@ -9237,11 +9278,11 @@
         <v>177</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -9257,7 +9298,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="19"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>112</v>
       </c>
@@ -9269,7 +9310,7 @@
         <v>177</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -9287,7 +9328,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>114</v>
       </c>
@@ -9299,7 +9340,7 @@
         <v>177</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -9315,7 +9356,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="19"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>116</v>
       </c>
@@ -9327,28 +9368,28 @@
         <v>177</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
       <c r="L14" s="2"/>
-      <c r="P14" s="91" t="s">
+      <c r="P14" s="87" t="s">
         <v>289</v>
       </c>
-      <c r="Q14" s="92"/>
-      <c r="R14" s="92"/>
-      <c r="S14" s="92"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="88"/>
+      <c r="S14" s="88"/>
       <c r="T14" s="47"/>
       <c r="U14" s="47"/>
       <c r="V14" s="48"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>232</v>
       </c>
@@ -9360,7 +9401,7 @@
         <v>187</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -9369,15 +9410,15 @@
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
       <c r="L15" s="2"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="94"/>
-      <c r="S15" s="94"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
       <c r="V15" s="49"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="45" t="s">
         <v>295</v>
       </c>
@@ -9389,7 +9430,7 @@
         <v>177</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -9398,15 +9439,15 @@
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="2"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="49"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>159</v>
       </c>
@@ -9418,7 +9459,7 @@
         <v>177</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -9437,7 +9478,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="49"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="13"/>
@@ -9458,7 +9499,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="49"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="13"/>
@@ -9479,7 +9520,7 @@
       <c r="U19" s="13"/>
       <c r="V19" s="49"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P20" s="50" t="s">
         <v>88</v>
       </c>
@@ -9489,18 +9530,18 @@
       <c r="R20" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
+      <c r="S20" s="94"/>
+      <c r="T20" s="94"/>
       <c r="U20" s="13"/>
       <c r="V20" s="49"/>
     </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="87" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="87"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="102" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="64"/>
@@ -9525,7 +9566,7 @@
       <c r="U21" s="13"/>
       <c r="V21" s="49"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -9577,7 +9618,7 @@
       <c r="U22" s="13"/>
       <c r="V22" s="49"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>330</v>
       </c>
@@ -9585,17 +9626,17 @@
         <v>363</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -9617,7 +9658,7 @@
       <c r="U23" s="13"/>
       <c r="V23" s="49"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>118</v>
       </c>
@@ -9657,7 +9698,7 @@
       <c r="U24" s="13"/>
       <c r="V24" s="49"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -9671,7 +9712,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -9686,7 +9727,7 @@
       <c r="U25" s="13"/>
       <c r="V25" s="49"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
@@ -9704,7 +9745,7 @@
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -9723,7 +9764,7 @@
       <c r="U26" s="13"/>
       <c r="V26" s="49"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>121</v>
       </c>
@@ -9735,11 +9776,11 @@
         <v>177</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -9760,7 +9801,7 @@
       <c r="U27" s="13"/>
       <c r="V27" s="49"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>21</v>
       </c>
@@ -9772,11 +9813,11 @@
         <v>177</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -9795,7 +9836,7 @@
       <c r="U28" s="13"/>
       <c r="V28" s="49"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>124</v>
       </c>
@@ -9807,11 +9848,11 @@
         <v>177</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -9830,7 +9871,7 @@
       <c r="U29" s="13"/>
       <c r="V29" s="49"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>125</v>
       </c>
@@ -9842,11 +9883,11 @@
         <v>177</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -9861,7 +9902,7 @@
       <c r="U30" s="13"/>
       <c r="V30" s="49"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>126</v>
       </c>
@@ -9873,11 +9914,11 @@
         <v>180</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -9892,7 +9933,7 @@
       <c r="U31" s="13"/>
       <c r="V31" s="49"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>129</v>
       </c>
@@ -9906,11 +9947,11 @@
         <v>177</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -9926,12 +9967,12 @@
       <c r="R32" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
       <c r="U32" s="13"/>
       <c r="V32" s="49"/>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>130</v>
       </c>
@@ -9945,11 +9986,11 @@
         <v>177</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -9970,23 +10011,23 @@
       <c r="U33" s="13"/>
       <c r="V33" s="49"/>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
@@ -10005,12 +10046,12 @@
       <c r="U34" s="13"/>
       <c r="V34" s="49"/>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
@@ -10034,33 +10075,33 @@
       <c r="U35" s="13"/>
       <c r="V35" s="49"/>
     </row>
-    <row r="36" spans="1:22">
-      <c r="P36" s="95" t="s">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P36" s="91" t="s">
         <v>290</v>
       </c>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
-      <c r="S36" s="96"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="49"/>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P37" s="50"/>
       <c r="Q37" s="51" t="s">
         <v>281</v>
       </c>
-      <c r="R37" s="89"/>
-      <c r="S37" s="89"/>
+      <c r="R37" s="96"/>
+      <c r="S37" s="96"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
       <c r="V37" s="49"/>
     </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="87" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="87"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="104" t="s">
         <v>136</v>
       </c>
@@ -10084,7 +10125,7 @@
       <c r="U38" s="13"/>
       <c r="V38" s="49"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
@@ -10140,7 +10181,7 @@
       <c r="U39" s="13"/>
       <c r="V39" s="49"/>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>330</v>
       </c>
@@ -10148,17 +10189,17 @@
         <v>363</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F40" s="10"/>
       <c r="G40" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -10183,12 +10224,12 @@
       <c r="U40" s="13"/>
       <c r="V40" s="49"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C41" s="82" t="s">
         <v>190</v>
@@ -10205,7 +10246,9 @@
       <c r="G41" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="10"/>
+      <c r="H41" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="I41" s="10" t="s">
         <v>98</v>
       </c>
@@ -10230,24 +10273,24 @@
       <c r="U41" s="13"/>
       <c r="V41" s="49"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -10269,12 +10312,12 @@
       <c r="U42" s="13"/>
       <c r="V42" s="49"/>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>256</v>
@@ -10283,11 +10326,11 @@
         <v>176</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -10313,15 +10356,15 @@
       <c r="U43" s="13"/>
       <c r="V43" s="49"/>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="C44" s="79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>179</v>
@@ -10336,7 +10379,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
       <c r="L44" s="17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P44" s="54"/>
       <c r="Q44" s="13"/>
@@ -10346,12 +10389,12 @@
       <c r="U44" s="13"/>
       <c r="V44" s="49"/>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C45" s="80" t="s">
         <v>329</v>
@@ -10364,14 +10407,14 @@
       </c>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
       <c r="L45" s="81" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="O45" s="32">
         <v>100001</v>
@@ -10384,23 +10427,23 @@
       <c r="U45" s="13"/>
       <c r="V45" s="49"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -10415,7 +10458,7 @@
       <c r="U46" s="13"/>
       <c r="V46" s="49"/>
     </row>
-    <row r="47" spans="1:22" s="19" customFormat="1">
+    <row r="47" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>131</v>
       </c>
@@ -10423,13 +10466,13 @@
         <v>384</v>
       </c>
       <c r="C47" s="80" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
@@ -10440,7 +10483,7 @@
       </c>
       <c r="K47" s="23"/>
       <c r="L47" s="17" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P47" s="50"/>
       <c r="Q47" s="13" t="s">
@@ -10454,23 +10497,23 @@
       <c r="U47" s="40"/>
       <c r="V47" s="55"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -10495,21 +10538,21 @@
       </c>
       <c r="V48" s="49"/>
     </row>
-    <row r="49" spans="1:22">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B49" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C49" s="71" t="s">
         <v>401</v>
-      </c>
-      <c r="C49" s="71" t="s">
-        <v>402</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -10536,7 +10579,7 @@
       </c>
       <c r="V49" s="49"/>
     </row>
-    <row r="50" spans="1:22">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>126</v>
       </c>
@@ -10548,11 +10591,11 @@
         <v>180</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -10577,7 +10620,7 @@
       </c>
       <c r="V50" s="49"/>
     </row>
-    <row r="51" spans="1:22">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="84" t="s">
         <v>102</v>
       </c>
@@ -10595,7 +10638,7 @@
       </c>
       <c r="F51" s="86"/>
       <c r="G51" s="86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H51" s="86"/>
       <c r="I51" s="86"/>
@@ -10622,7 +10665,7 @@
       </c>
       <c r="V51" s="49"/>
     </row>
-    <row r="52" spans="1:22">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="P52" s="50"/>
       <c r="Q52" s="38" t="s">
         <v>270</v>
@@ -10641,7 +10684,7 @@
       </c>
       <c r="V52" s="49"/>
     </row>
-    <row r="53" spans="1:22">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="69"/>
       <c r="P53" s="50"/>
       <c r="Q53" s="39"/>
@@ -10651,7 +10694,7 @@
       <c r="U53" s="13"/>
       <c r="V53" s="49"/>
     </row>
-    <row r="54" spans="1:22">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="69"/>
       <c r="P54" s="61"/>
       <c r="Q54" s="62"/>
@@ -10661,11 +10704,11 @@
       <c r="U54" s="62"/>
       <c r="V54" s="63"/>
     </row>
-    <row r="55" spans="1:22">
-      <c r="A55" s="87" t="s">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="87"/>
+      <c r="B55" s="95"/>
       <c r="C55" s="104" t="s">
         <v>249</v>
       </c>
@@ -10687,7 +10730,7 @@
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
     </row>
-    <row r="56" spans="1:22">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>25</v>
       </c>
@@ -10728,7 +10771,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="57" spans="1:22">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>330</v>
       </c>
@@ -10736,17 +10779,17 @@
         <v>363</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D57" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F57" s="10"/>
       <c r="G57" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -10756,12 +10799,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:22">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C58" s="82" t="s">
         <v>190</v>
@@ -10778,7 +10821,9 @@
       <c r="G58" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="H58" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="I58" s="10" t="s">
         <v>98</v>
       </c>
@@ -10788,36 +10833,36 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:22">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="1:22">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>256</v>
@@ -10826,11 +10871,11 @@
         <v>176</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F60" s="10"/>
       <c r="G60" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -10841,15 +10886,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="61" spans="1:22">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="C61" s="79" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>179</v>
@@ -10864,18 +10909,18 @@
       <c r="J61" s="10"/>
       <c r="K61" s="10"/>
       <c r="L61" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="O61" s="32">
         <v>100001</v>
       </c>
     </row>
-    <row r="62" spans="1:22">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C62" s="80" t="s">
         <v>329</v>
@@ -10888,20 +10933,20 @@
       </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
       <c r="K62" s="10"/>
       <c r="L62" s="81" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O62" s="32">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:22">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>225</v>
       </c>
@@ -10915,11 +10960,11 @@
         <v>176</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F63" s="23"/>
       <c r="G63" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -10928,7 +10973,7 @@
       <c r="L63" s="2"/>
       <c r="R63" s="20"/>
     </row>
-    <row r="64" spans="1:22">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -10937,14 +10982,14 @@
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -10952,12 +10997,12 @@
       <c r="K64" s="10"/>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="1:21" s="13" customFormat="1">
+    <row r="65" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>343</v>
@@ -10966,11 +11011,11 @@
         <v>179</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F65" s="10"/>
       <c r="G65" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -10984,7 +11029,7 @@
       <c r="T65"/>
       <c r="U65"/>
     </row>
-    <row r="66" spans="1:21" s="13" customFormat="1">
+    <row r="66" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>144</v>
       </c>
@@ -10996,11 +11041,11 @@
         <v>180</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -11014,12 +11059,12 @@
       <c r="T66"/>
       <c r="U66"/>
     </row>
-    <row r="67" spans="1:21" s="13" customFormat="1">
+    <row r="67" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>341</v>
@@ -11028,11 +11073,11 @@
         <v>178</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -11046,12 +11091,12 @@
       <c r="T67"/>
       <c r="U67"/>
     </row>
-    <row r="68" spans="1:21" s="13" customFormat="1">
+    <row r="68" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>342</v>
@@ -11060,11 +11105,11 @@
         <v>178</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
@@ -11077,21 +11122,21 @@
       <c r="S68"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:21" s="13" customFormat="1">
+    <row r="69" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C69" s="71" t="s">
         <v>401</v>
-      </c>
-      <c r="C69" s="71" t="s">
-        <v>402</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -11106,7 +11151,7 @@
       <c r="S69"/>
       <c r="T69"/>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>126</v>
       </c>
@@ -11118,11 +11163,11 @@
         <v>180</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
@@ -11132,12 +11177,12 @@
       <c r="P70" s="13"/>
       <c r="U70" s="13"/>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="84" t="s">
         <v>102</v>
       </c>
       <c r="B71" s="84" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C71" s="85" t="s">
         <v>195</v>
@@ -11150,7 +11195,7 @@
       </c>
       <c r="F71" s="86"/>
       <c r="G71" s="86" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H71" s="86"/>
       <c r="I71" s="86"/>
@@ -11165,7 +11210,7 @@
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="70"/>
       <c r="P72" s="13"/>
       <c r="Q72" s="13"/>
@@ -11173,21 +11218,21 @@
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="68"/>
       <c r="Q73" s="13"/>
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="69"/>
       <c r="Q74" s="13"/>
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
     </row>
-    <row r="75" spans="1:21" s="13" customFormat="1">
+    <row r="75" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="69"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -11203,11 +11248,11 @@
       <c r="P75"/>
       <c r="U75"/>
     </row>
-    <row r="76" spans="1:21">
-      <c r="A76" s="87" t="s">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B76" s="87"/>
+      <c r="B76" s="95"/>
       <c r="C76" s="104" t="s">
         <v>246</v>
       </c>
@@ -11221,7 +11266,7 @@
       <c r="K76" s="74"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="14" t="s">
         <v>25</v>
       </c>
@@ -11262,12 +11307,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C78" s="14" t="s">
         <v>264</v>
@@ -11276,7 +11321,7 @@
         <v>176</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F78" s="67" t="s">
         <v>336</v>
@@ -11287,18 +11332,18 @@
       <c r="H78" s="67"/>
       <c r="I78" s="10"/>
       <c r="J78" s="67" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K78" s="67"/>
       <c r="L78" s="44"/>
       <c r="U78" s="13"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>179</v>
@@ -11318,23 +11363,23 @@
       <c r="K79" s="10"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C80" s="6"/>
       <c r="D80" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
@@ -11343,23 +11388,23 @@
       <c r="L80" s="2"/>
       <c r="P80" s="13"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>152</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F81" s="10"/>
       <c r="G81" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
@@ -11367,7 +11412,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="2"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>154</v>
       </c>
@@ -11379,7 +11424,7 @@
         <v>187</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -11389,7 +11434,7 @@
       <c r="K82" s="10"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>159</v>
       </c>
@@ -11401,7 +11446,7 @@
         <v>177</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -11415,23 +11460,23 @@
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2" t="s">
         <v>179</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F84" s="10"/>
       <c r="G84" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H84" s="10"/>
       <c r="I84" s="10"/>
@@ -11442,23 +11487,23 @@
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C85" s="22"/>
       <c r="D85" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H85" s="10"/>
       <c r="I85" s="10"/>
@@ -11466,19 +11511,19 @@
       <c r="K85" s="10"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -11488,15 +11533,15 @@
       <c r="K86" s="10"/>
       <c r="L86" s="2"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>179</v>
@@ -11509,18 +11554,18 @@
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
       <c r="J87" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K87" s="10"/>
       <c r="L87" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
-      <c r="A90" s="87" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A90" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="87"/>
+      <c r="B90" s="95"/>
       <c r="C90" s="104" t="s">
         <v>247</v>
       </c>
@@ -11534,7 +11579,7 @@
       <c r="K90" s="74"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>25</v>
       </c>
@@ -11575,12 +11620,12 @@
         <v>267</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C92" s="14" t="s">
         <v>265</v>
@@ -11589,7 +11634,7 @@
         <v>176</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F92" s="67" t="s">
         <v>336</v>
@@ -11600,7 +11645,7 @@
       <c r="H92" s="67"/>
       <c r="I92" s="10"/>
       <c r="J92" s="67" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K92" s="67"/>
       <c r="L92" s="44"/>
@@ -11608,12 +11653,12 @@
         <v>268</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="2" t="s">
@@ -11634,7 +11679,7 @@
       <c r="K93" s="10"/>
       <c r="L93" s="2"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>225</v>
       </c>
@@ -11648,11 +11693,11 @@
         <v>176</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H94" s="10"/>
       <c r="I94" s="10"/>
@@ -11660,23 +11705,23 @@
       <c r="K94" s="10"/>
       <c r="L94" s="2"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
         <v>176</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F95" s="10"/>
       <c r="G95" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H95" s="10"/>
       <c r="I95" s="10"/>
@@ -11684,23 +11729,23 @@
       <c r="K95" s="10"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
@@ -11708,7 +11753,7 @@
       <c r="K96" s="10"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>154</v>
       </c>
@@ -11720,7 +11765,7 @@
         <v>187</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -11730,7 +11775,7 @@
       <c r="K97" s="10"/>
       <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>159</v>
       </c>
@@ -11742,7 +11787,7 @@
         <v>177</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -11752,12 +11797,12 @@
       <c r="K98" s="10"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>227</v>
@@ -11766,11 +11811,11 @@
         <v>179</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
@@ -11778,23 +11823,23 @@
       <c r="K99" s="10"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C100" s="22"/>
       <c r="D100" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
@@ -11802,19 +11847,19 @@
       <c r="K100" s="10"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="45" t="s">
         <v>295</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -11824,15 +11869,15 @@
       <c r="K101" s="10"/>
       <c r="L101" s="2"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="C102" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>179</v>
@@ -11845,24 +11890,24 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K102" s="10"/>
       <c r="L102" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="70"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="M104" s="2"/>
     </row>
-    <row r="105" spans="1:21">
-      <c r="A105" s="87" t="s">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A105" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B105" s="87"/>
+      <c r="B105" s="95"/>
       <c r="C105" s="102" t="s">
         <v>348</v>
       </c>
@@ -11877,7 +11922,7 @@
       <c r="L105" s="9"/>
       <c r="M105" s="31"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>25</v>
       </c>
@@ -11916,7 +11961,7 @@
       </c>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="22" t="s">
         <v>330</v>
       </c>
@@ -11924,31 +11969,31 @@
         <v>363</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>177</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="10"/>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
       <c r="J107" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K107" s="10"/>
       <c r="L107" s="7"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="1:21" s="19" customFormat="1">
+    <row r="108" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>198</v>
@@ -11982,12 +12027,12 @@
       <c r="T108"/>
       <c r="U108"/>
     </row>
-    <row r="109" spans="1:21" s="19" customFormat="1">
+    <row r="109" spans="1:21" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>217</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C109" s="22" t="s">
         <v>220</v>
@@ -11996,11 +12041,11 @@
         <v>179</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H109" s="23"/>
       <c r="I109" s="23"/>
@@ -12018,12 +12063,12 @@
       <c r="T109"/>
       <c r="U109"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="83" t="s">
         <v>263</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C110" s="83" t="s">
         <v>265</v>
@@ -12032,16 +12077,16 @@
         <v>176</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H110" s="23"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K110" s="23"/>
       <c r="L110" s="22"/>
@@ -12050,12 +12095,12 @@
         <v>10001</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="2" t="s">
@@ -12066,7 +12111,7 @@
       </c>
       <c r="F111" s="10"/>
       <c r="G111" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
@@ -12079,7 +12124,7 @@
       </c>
       <c r="U111" s="19"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>225</v>
       </c>
@@ -12093,11 +12138,11 @@
         <v>176</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F112" s="10"/>
       <c r="G112" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
@@ -12107,12 +12152,12 @@
       <c r="M112" s="1"/>
       <c r="U112" s="19"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>323</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>219</v>
@@ -12121,11 +12166,11 @@
         <v>179</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F113" s="10"/>
       <c r="G113" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H113" s="10"/>
       <c r="I113" s="10"/>
@@ -12135,23 +12180,23 @@
       <c r="M113" s="1"/>
       <c r="P113" s="19"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2" t="s">
         <v>178</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H114" s="10"/>
       <c r="I114" s="10"/>
@@ -12160,7 +12205,7 @@
       <c r="L114" s="2"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>102</v>
       </c>
@@ -12178,7 +12223,7 @@
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H115" s="10"/>
       <c r="I115" s="10"/>
@@ -12189,19 +12234,19 @@
       </c>
       <c r="M115" s="6"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="68"/>
       <c r="M116" s="6"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="68"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="1:16">
-      <c r="A118" s="87" t="s">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B118" s="87"/>
+      <c r="B118" s="95"/>
       <c r="C118" s="104" t="s">
         <v>347</v>
       </c>
@@ -12216,7 +12261,7 @@
       <c r="L118" s="9"/>
       <c r="M118" s="68"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>25</v>
       </c>
@@ -12255,7 +12300,7 @@
       </c>
       <c r="M119" s="69"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>86</v>
       </c>
@@ -12278,15 +12323,15 @@
       <c r="J120" s="10"/>
       <c r="K120" s="10"/>
       <c r="L120" s="17" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C121" s="17" t="s">
         <v>190</v>
@@ -12304,10 +12349,10 @@
       <c r="J121" s="10"/>
       <c r="K121" s="10"/>
       <c r="L121" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>90</v>
       </c>
@@ -12319,7 +12364,7 @@
         <v>177</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -12329,7 +12374,7 @@
       <c r="K122" s="10"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:16">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>92</v>
       </c>
@@ -12341,7 +12386,7 @@
         <v>177</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
@@ -12352,12 +12397,12 @@
       <c r="L123" s="2"/>
       <c r="O123" s="13"/>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>339</v>
@@ -12366,7 +12411,7 @@
         <v>177</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -12377,19 +12422,19 @@
       <c r="L124" s="2"/>
       <c r="O124" s="13"/>
     </row>
-    <row r="125" spans="1:16">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -12400,12 +12445,12 @@
       <c r="L125" s="2"/>
       <c r="O125" s="13"/>
     </row>
-    <row r="126" spans="1:16">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="22" t="s">
@@ -12421,19 +12466,19 @@
       <c r="L126" s="2"/>
       <c r="O126" s="13"/>
     </row>
-    <row r="127" spans="1:16">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2" t="s">
         <v>177</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
@@ -12444,12 +12489,12 @@
       <c r="L127" s="2"/>
       <c r="O127" s="13"/>
     </row>
-    <row r="128" spans="1:16">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="22" t="s">
@@ -12465,19 +12510,19 @@
       <c r="L128" s="2"/>
       <c r="O128" s="13"/>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
@@ -12488,19 +12533,19 @@
       <c r="L129" s="2"/>
       <c r="O129" s="13"/>
     </row>
-    <row r="130" spans="1:16">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
@@ -12511,23 +12556,23 @@
       <c r="L130" s="2"/>
       <c r="O130" s="13"/>
     </row>
-    <row r="131" spans="1:16">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="70"/>
       <c r="O131" s="13"/>
     </row>
-    <row r="132" spans="1:16">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="70"/>
       <c r="P132" s="13"/>
     </row>
-    <row r="133" spans="1:16">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="68"/>
       <c r="P133" s="13"/>
     </row>
-    <row r="134" spans="1:16">
-      <c r="A134" s="87" t="s">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B134" s="87"/>
+      <c r="B134" s="95"/>
       <c r="C134" s="104" t="s">
         <v>166</v>
       </c>
@@ -12542,7 +12587,7 @@
       <c r="L134" s="9"/>
       <c r="P134" s="13"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>25</v>
       </c>
@@ -12583,12 +12628,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
+        <v>447</v>
+      </c>
+      <c r="B136" s="14" t="s">
         <v>448</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>449</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2" t="s">
@@ -12598,36 +12643,40 @@
         <v>8</v>
       </c>
       <c r="F136" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G136" s="67" t="s">
-        <v>392</v>
-      </c>
-      <c r="H136" s="67"/>
-      <c r="I136" s="10"/>
+        <v>391</v>
+      </c>
+      <c r="H136" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="I136" s="10" t="s">
+        <v>455</v>
+      </c>
       <c r="J136" s="67"/>
       <c r="K136" s="67"/>
       <c r="L136" s="15"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>263</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F137" s="67"/>
       <c r="G137" s="67" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H137" s="67"/>
       <c r="I137" s="10"/>
@@ -12636,12 +12685,12 @@
       <c r="L137" s="44"/>
       <c r="P137" s="13"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="2" t="s">
@@ -12652,7 +12701,7 @@
       </c>
       <c r="F138" s="10"/>
       <c r="G138" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
@@ -12660,7 +12709,7 @@
       <c r="K138" s="10"/>
       <c r="L138" s="2"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>11</v>
       </c>
@@ -12678,33 +12727,33 @@
       </c>
       <c r="F139" s="10"/>
       <c r="G139" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
       <c r="K139" s="10"/>
       <c r="L139" s="17" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2" t="s">
         <v>180</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F140" s="10"/>
       <c r="G140" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
@@ -12712,19 +12761,19 @@
       <c r="K140" s="10"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2" t="s">
         <v>174</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -12734,12 +12783,12 @@
       <c r="K141" s="10"/>
       <c r="L141" s="2"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>331</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2" t="s">
@@ -12748,7 +12797,7 @@
       <c r="E142" s="16"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
@@ -12756,19 +12805,19 @@
       <c r="K142" s="10"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
@@ -12778,17 +12827,17 @@
       <c r="K143" s="10"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="76"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="70"/>
     </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="87" t="s">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A147" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="87"/>
+      <c r="B147" s="95"/>
       <c r="C147" s="104" t="s">
         <v>386</v>
       </c>
@@ -12802,7 +12851,7 @@
       <c r="K147" s="74"/>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>25</v>
       </c>
@@ -12840,12 +12889,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>256</v>
@@ -12854,13 +12903,13 @@
         <v>176</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>252</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
@@ -12868,19 +12917,19 @@
       <c r="K149" s="10"/>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:21" s="13" customFormat="1">
+    <row r="150" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
@@ -12896,7 +12945,7 @@
       <c r="T150"/>
       <c r="U150"/>
     </row>
-    <row r="151" spans="1:21" s="13" customFormat="1">
+    <row r="151" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="69"/>
       <c r="B151" s="27"/>
       <c r="F151" s="73"/>
@@ -12912,7 +12961,7 @@
       <c r="T151"/>
       <c r="U151"/>
     </row>
-    <row r="152" spans="1:21" s="13" customFormat="1">
+    <row r="152" spans="1:21" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="26"/>
       <c r="B152" s="26"/>
       <c r="E152" s="28"/>
@@ -12929,7 +12978,7 @@
       <c r="T152"/>
       <c r="U152"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="13"/>
@@ -12944,11 +12993,11 @@
       <c r="L153" s="13"/>
       <c r="U153" s="13"/>
     </row>
-    <row r="154" spans="1:21">
-      <c r="A154" s="87" t="s">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A154" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B154" s="87"/>
+      <c r="B154" s="95"/>
       <c r="C154" s="102" t="s">
         <v>385</v>
       </c>
@@ -12963,7 +13012,7 @@
       <c r="L154" s="9"/>
       <c r="U154" s="13"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>25</v>
       </c>
@@ -13002,12 +13051,12 @@
       </c>
       <c r="U155" s="13"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>390</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2" t="s">
@@ -13017,19 +13066,23 @@
         <v>8</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
+        <v>391</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I156" s="10" t="s">
+        <v>454</v>
+      </c>
       <c r="J156" s="10"/>
       <c r="K156" s="10"/>
       <c r="L156" s="3"/>
       <c r="U156" s="13"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>324</v>
       </c>
@@ -13041,11 +13094,11 @@
         <v>176</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H157" s="10"/>
       <c r="I157" s="10"/>
@@ -13054,7 +13107,7 @@
       <c r="L157" s="75"/>
       <c r="U157" s="13"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>325</v>
       </c>
@@ -13068,7 +13121,7 @@
         <v>176</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
@@ -13079,7 +13132,7 @@
       <c r="L158" s="75"/>
       <c r="U158" s="13"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>326</v>
       </c>
@@ -13093,7 +13146,7 @@
         <v>176</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
@@ -13104,7 +13157,7 @@
       <c r="L159" s="75"/>
       <c r="U159" s="13"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>327</v>
       </c>
@@ -13125,7 +13178,7 @@
       <c r="L160" s="75"/>
       <c r="U160" s="13"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>328</v>
       </c>
@@ -13147,7 +13200,7 @@
       <c r="P161" s="13"/>
       <c r="U161" s="13"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>244</v>
       </c>
@@ -13161,7 +13214,7 @@
         <v>176</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
@@ -13172,21 +13225,21 @@
       <c r="L162" s="22"/>
       <c r="P162" s="13"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C163" s="77" t="s">
-        <v>387</v>
+      <c r="C163" s="77">
+        <v>34</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>176</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -13197,21 +13250,21 @@
       <c r="L163" s="2"/>
       <c r="P163" s="13"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="69"/>
       <c r="Q164" s="13"/>
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
       <c r="T164" s="13"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="69"/>
       <c r="Q165" s="13"/>
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="69"/>
       <c r="Q166" s="13"/>
       <c r="R166" s="13"/>
@@ -13220,13 +13273,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="P14:S16"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A134:B134"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:D90"/>
     <mergeCell ref="S32:T32"/>
@@ -13238,16 +13294,13 @@
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="P14:S16"/>
+    <mergeCell ref="S20:T20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
